--- a/cypress/downloads/shifts_roaster.xlsx
+++ b/cypress/downloads/shifts_roaster.xlsx
@@ -20,31 +20,31 @@
     <t>Employees</t>
   </si>
   <si>
-    <t>2025-07-07
+    <t>2025-07-14
 Mon</t>
   </si>
   <si>
-    <t>2025-07-08
+    <t>2025-07-15
 Tue</t>
   </si>
   <si>
-    <t>2025-07-09
+    <t>2025-07-16
 Wed</t>
   </si>
   <si>
-    <t>2025-07-10
+    <t>2025-07-17
 Thu</t>
   </si>
   <si>
-    <t>2025-07-11
+    <t>2025-07-18
 Fri</t>
   </si>
   <si>
-    <t>2025-07-12
+    <t>2025-07-19
 Sat</t>
   </si>
   <si>
-    <t>2025-07-13
+    <t>2025-07-20
 Sun</t>
   </si>
   <si>

--- a/cypress/downloads/shifts_roaster.xlsx
+++ b/cypress/downloads/shifts_roaster.xlsx
@@ -20,31 +20,31 @@
     <t>Employees</t>
   </si>
   <si>
-    <t>2025-08-18
+    <t>2025-08-25
 Mon</t>
   </si>
   <si>
-    <t>2025-08-19
+    <t>2025-08-26
 Tue</t>
   </si>
   <si>
-    <t>2025-08-20
+    <t>2025-08-27
 Wed</t>
   </si>
   <si>
-    <t>2025-08-21
+    <t>2025-08-28
 Thu</t>
   </si>
   <si>
-    <t>2025-08-22
+    <t>2025-08-29
 Fri</t>
   </si>
   <si>
-    <t>2025-08-23
+    <t>2025-08-30
 Sat</t>
   </si>
   <si>
-    <t>2025-08-24
+    <t>2025-08-31
 Sun</t>
   </si>
   <si>
